--- a/report_template/equipHistory.xlsx
+++ b/report_template/equipHistory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>測站名稱</t>
   </si>
@@ -39,14 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>起始時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>維修與維護說明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,6 +52,22 @@
   </si>
   <si>
     <t>測站名稱：麥寮環境監測中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建置時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>維護時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作類別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -224,6 +232,9 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,9 +245,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -341,6 +349,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -376,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,7 +597,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -569,34 +611,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -607,19 +653,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,10 +2433,9 @@
       <c r="G200" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
